--- a/src/main/java/com/torenzosite/qa/testdata/TorenzoWorkBook.xlsx
+++ b/src/main/java/com/torenzosite/qa/testdata/TorenzoWorkBook.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>First Name</t>
   </si>
@@ -161,6 +161,24 @@
   </si>
   <si>
     <t>With Incorrect email id</t>
+  </si>
+  <si>
+    <t>rakesh.patil.uk@gmail.com</t>
+  </si>
+  <si>
+    <t>jitendra.patil.uk@gmail.com</t>
+  </si>
+  <si>
+    <t>arjun.patil.uk@gmailcom</t>
+  </si>
+  <si>
+    <t>rakesh@gmail.com</t>
+  </si>
+  <si>
+    <t>Try Torenzo For Free Page Data</t>
+  </si>
+  <si>
+    <t>Leave Us Message Page Data</t>
   </si>
 </sst>
 </file>
@@ -219,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,6 +254,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -518,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,9 +554,10 @@
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -571,7 +594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>7</v>
       </c>
@@ -579,7 +602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -593,13 +616,16 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -617,7 +643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -628,13 +654,13 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -648,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -668,10 +694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,9 +707,10 @@
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -697,7 +724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -714,7 +741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -723,10 +750,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4">
         <v>4578132355</v>
@@ -738,7 +765,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -752,8 +779,11 @@
       <c r="E5" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -768,7 +798,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -783,7 +813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
@@ -800,7 +830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
